--- a/data/financial_statements/sofp/BA.xlsx
+++ b/data/financial_statements/sofp/BA.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -128,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -485,3010 +599,3085 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>17220000000</v>
+      </c>
+      <c r="C2">
         <v>14257000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11448000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12282000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>16244000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>19995000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>21342000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>21920000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>25590000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>27116000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>32430000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>15527000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>10030000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>10913000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>9606000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>7729000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>8564000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>9990000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>9770000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>9891000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>9992000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>10032000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>10326000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>9205000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>10029000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>9668000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>9265000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>8352000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>12052000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>9857000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>9625000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>9631000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>13092000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>10077000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>11330000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>12224000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>15258000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>15911000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>14325000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>11853000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>11305000000</v>
+      </c>
+      <c r="C3">
         <v>12144000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>12549000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>11555000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>11378000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>12332000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>11767000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>11234000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>10051000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>11722000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>11478000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>12725000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>12471000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>14808000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>13709000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>14217000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>14364000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>13260000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>12985000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>12868000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>11397000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>11079000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>10052000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>9915000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>9260000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>9889000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>10060000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>9969000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>8925000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>9081000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>8136000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>8271000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>7919000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>8056000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>7931000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>7597000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>6890000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>6968000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>6726000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>6811000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>78151000000</v>
+      </c>
+      <c r="C4">
         <v>79777000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>79917000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>79819000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>78823000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>81897000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>81799000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>82668000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>81715000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>86961000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>83745000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>80020000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>76622000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>73279000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>68492000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>65369000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>62567000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>62038000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>61250000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>61303000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>61388000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>43031000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>42453000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>43247000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>43199000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>42680000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>44182000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>47266000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>47257000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>48624000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>49028000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>48502000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>46756000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>47058000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>46251000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>44941000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>42912000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>41240000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>40234000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>40797000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>2847000000</v>
+      </c>
+      <c r="C5">
         <v>3073000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2086000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2356000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2221000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>2664000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4187000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4123000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4286000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>5213000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2624000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2739000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>3106000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>2656000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3304000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2194000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>2335000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2398000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>2396000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>2481000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2417000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>109523000000</v>
+      </c>
+      <c r="C6">
         <v>109251000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>106000000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>106012000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>108666000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>116888000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>119095000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>119945000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>121642000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>131012000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>130277000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>111011000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>102229000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>101656000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>95111000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>89509000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>87830000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>87686000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>86401000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>86543000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>85194000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>64142000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>62831000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>62367000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>62488000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>62237000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>63507000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>65587000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>68234000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>67576000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>66806000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>66421000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>67767000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>65218000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>65527000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>64777000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>65074000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>64162000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>61310000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>59490000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>10550000000</v>
+      </c>
+      <c r="C7">
         <v>10508000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>10617000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>10755000000</v>
       </c>
-      <c r="E7">
-        <v>12355000000</v>
-      </c>
       <c r="F7">
+        <v>10918000000</v>
+      </c>
+      <c r="G7">
         <v>11113000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>11341000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>11643000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>11820000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>11969000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>12182000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>12405000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>12502000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>12527000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>12601000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>12594000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>12645000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>12571000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>12605000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>12628000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>12672000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>12712000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>12820000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>12842000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>12807000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>12713000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>12533000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>12269000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>12076000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>11614000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>11338000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>11172000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>11007000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>10707000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>10449000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>10263000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>10224000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>9987000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>9814000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>9736000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>983000000</v>
+      </c>
+      <c r="C8">
         <v>979000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>981000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>992000000</v>
       </c>
-      <c r="E8">
-        <v>1073000000</v>
-      </c>
       <c r="F8">
+        <v>975000000</v>
+      </c>
+      <c r="G8">
         <v>963000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>883000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>980000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1016000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1052000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1066000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1124000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1092000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1117000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1142000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1183000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1087000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1190000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>1203000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>1248000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1260000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1270000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1278000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1319000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1317000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>1303000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>1312000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1297000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1284000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>1277000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1256000000</v>
-      </c>
-      <c r="AF8">
-        <v>1154000000</v>
       </c>
       <c r="AG8">
         <v>1154000000</v>
       </c>
       <c r="AH8">
+        <v>1154000000</v>
+      </c>
+      <c r="AI8">
         <v>1203000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1196000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1208000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1204000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1168000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1166000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>1177000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>10368000000</v>
+      </c>
+      <c r="C9">
         <v>10416000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>10486000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>10557000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>10630000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>10701000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10778000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10847000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>10924000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>11012000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>11083000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>11313000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>11398000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>11650000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>11812000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>11465000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>11269000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>8252000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>8044000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>8083000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>8132000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>7867000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>7914000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>7838000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>7864000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>7616000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>7672000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>7726000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>7783000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>7828000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>7889000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>7914000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>7988000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>8085000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>8143000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>8042000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>8095000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>8009000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>8054000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>8124000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>63000000</v>
+      </c>
+      <c r="C10">
         <v>77000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>106000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>91000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>77000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>74000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>84000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>79000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>86000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>704000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>729000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>678000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>683000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>296000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>357000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>281000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>284000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>323000000</v>
-      </c>
-      <c r="S10">
-        <v>325000000</v>
       </c>
       <c r="T10">
         <v>325000000</v>
       </c>
       <c r="U10">
+        <v>325000000</v>
+      </c>
+      <c r="V10">
         <v>321000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>298000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>325000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>336000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>332000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>265000000</v>
-      </c>
-      <c r="AA10">
-        <v>267000000</v>
       </c>
       <c r="AB10">
         <v>267000000</v>
       </c>
       <c r="AC10">
+        <v>267000000</v>
+      </c>
+      <c r="AD10">
         <v>265000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>6146000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>6264000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>6485000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>317000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>2546000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>2664000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>2463000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>2939000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>5957000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>6307000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>6522000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
-        <v>4814000000</v>
+        <v>5613000000</v>
       </c>
       <c r="C11">
-        <v>5747000000</v>
+        <v>6327000000</v>
       </c>
       <c r="D11">
-        <v>5814000000</v>
+        <v>7289000000</v>
       </c>
       <c r="E11">
-        <v>4056000000</v>
+        <v>7394000000</v>
       </c>
       <c r="F11">
-        <v>5312000000</v>
+        <v>7286000000</v>
       </c>
       <c r="G11">
+        <v>7107000000</v>
+      </c>
+      <c r="H11">
         <v>6754000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6541000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6648000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>5512000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>7535000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>6544000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5721000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>5352000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>5238000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>5177000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>4244000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>4637000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>4617000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>4722000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4783000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>4718000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>4868000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>4971000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>5189000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>4816000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>4318000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>4401000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>4766000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>4557000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>4549000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>4629000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>4688000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>4894000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>4758000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>4822000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>5127000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>5350000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>5440000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>5398000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>27577000000</v>
+      </c>
+      <c r="C12">
         <v>28307000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>29479000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>29789000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>29886000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>29958000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>29840000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>30090000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>30494000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>30249000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>32595000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>32064000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>31396000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>30942000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>31150000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>30700000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>29529000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>26973000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>26794000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>27006000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>27168000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>26865000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>27205000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>27306000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>27509000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>26713000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>26102000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>25960000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>26174000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>31422000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>31296000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>31354000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>25154000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>27435000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>27210000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>26798000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>27589000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>30471000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>30781000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>30957000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>137100000000</v>
+      </c>
+      <c r="C13">
         <v>137558000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>135479000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>135801000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>138552000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>146846000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>148935000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>150035000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>152136000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>161261000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>162872000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>143075000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>133625000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>132598000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>126261000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>120209000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>117359000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>114659000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>113195000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>113549000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>112362000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>91007000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>90036000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>89673000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>89997000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>88950000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>89609000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>91547000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>94408000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>98998000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>98102000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>97775000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>92921000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>92653000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>92737000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>91575000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>92663000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>94633000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>92091000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>90447000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>10200000000</v>
+      </c>
+      <c r="C14">
         <v>9793000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>9575000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>8779000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>9261000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>10151000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>11450000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>12410000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>12928000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>14479000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>13700000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>14963000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>15553000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>15101000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>15267000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>14693000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>12916000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>13663000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>12904000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>12613000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>12202000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>12718000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>12093000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>11964000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>11190000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>11968000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>11748000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>11558000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>10800000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>11777000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>11531000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>11497000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>10667000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>11136000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>11060000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>10779000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>9498000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>10657000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>10437000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>9876000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>21581000000</v>
+      </c>
+      <c r="C15">
         <v>21217000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>17752000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>17864000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>18455000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>18974000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>19502000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>20553000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>22171000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>22220000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>22493000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>21483000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>22868000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>19224000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>20042000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>13007000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>14808000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>12869000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>12240000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>10983000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>13069000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>14008000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>14294000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>13332000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>14691000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>13243000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>13534000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>12790000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>14014000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>12770000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>13226000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>11958000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>13462000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>12677000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>13222000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>12219000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>14131000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>12384000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>12412000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>11530000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>5190000000</v>
+      </c>
+      <c r="C16">
         <v>5431000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>5406000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>2591000000</v>
       </c>
-      <c r="E16">
-        <v>1564000000</v>
-      </c>
       <c r="F16">
+        <v>1296000000</v>
+      </c>
+      <c r="G16">
         <v>5377000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>6534000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>6021000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1693000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>3634000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2922000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>5173000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>7340000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>4354000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>4357000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>3381000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3190000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1389000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1611000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1981000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1335000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>988000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>720000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>367000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>384000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>632000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1168000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1243000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1234000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>614000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>112000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>133000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>929000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1579000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1591000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1660000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1563000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>919000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>883000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>917000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17">
         <v>9205000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>8894000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>8916000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>6685000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>6222000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>6732000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>6267000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>5504000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>5072000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>4838000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>74394000000</v>
+        <v>53081000000</v>
       </c>
       <c r="C18">
-        <v>69818000000</v>
+        <v>53177000000</v>
       </c>
       <c r="D18">
-        <v>70322000000</v>
+        <v>52066000000</v>
       </c>
       <c r="E18">
-        <v>71162000000</v>
+        <v>52458000000</v>
       </c>
       <c r="F18">
-        <v>70243000000</v>
+        <v>52980000000</v>
       </c>
       <c r="G18">
+        <v>51269000000</v>
+      </c>
+      <c r="H18">
         <v>50738000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>50908000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>50488000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>51974000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>53367000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>52883000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>51551000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>53167000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>52523000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>52534000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>50676000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>51496000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>50970000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>49955000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>48042000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>26695000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>25802000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>24118000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>23869000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>22646000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>23409000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>23926000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>24364000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>23442000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>23373000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>22752000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>23175000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>21127000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>21244000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>21112000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>20027000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>20216000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>18145000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>18505000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>90052000000</v>
+      </c>
+      <c r="C19">
         <v>89618000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>84799000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>81692000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>81992000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>85771000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>88224000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>89892000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>87280000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>92307000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>92482000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>94502000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>97312000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>91846000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>92189000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>83615000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>81590000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>79417000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>77725000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>75532000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>74648000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>54409000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>52909000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>49781000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>50134000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>48489000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>49859000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>49517000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>50412000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>57808000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>57136000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>55256000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>48233000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>53204000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>53339000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>52502000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>51486000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>49680000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>46949000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>45666000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>51811000000</v>
+      </c>
+      <c r="C20">
         <v>51788000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>51794000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>55150000000</v>
       </c>
-      <c r="E20">
-        <v>58077000000</v>
-      </c>
       <c r="F20">
+        <v>56806000000</v>
+      </c>
+      <c r="G20">
         <v>57042000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>57025000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>57554000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>61890000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>57325000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>58457000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>33754000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>19962000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>20298000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>14859000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>11363000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>10657000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>10487000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>10507000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>10471000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>9782000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>9780000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>10055000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>10432000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>9568000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>9824000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>9847000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>8721000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>8730000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>8402000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>8904000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>8905000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>8141000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>7301000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>7292000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>7275000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>8072000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>8677000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>8695000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>8254000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>8644000000</v>
+      </c>
+      <c r="C21">
         <v>11307000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>11748000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>12190000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>12632000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>15392000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>17536000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>18045000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>18545000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>19772000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>20090000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>20445000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>20816000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>19027000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>19317000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>19612000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>19907000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>21321000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>21562000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>21773000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>22016000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>21340000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>25507000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>25681000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>25859000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>24547000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>24786000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>24810000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>24399000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>24541000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>24314000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>24151000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>23984000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>15756000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>16318000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>16191000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>17002000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>25974000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>27501000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>27325000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>153000000</v>
+        <v>230000000</v>
       </c>
       <c r="C22">
-        <v>-68000000</v>
+        <v>230000000</v>
       </c>
       <c r="D22">
-        <v>67000000</v>
+        <v>38000000</v>
       </c>
       <c r="E22">
-        <v>141000000</v>
+        <v>158000000</v>
       </c>
       <c r="F22">
-        <v>1111000000</v>
+        <v>218000000</v>
       </c>
       <c r="G22">
+        <v>1185000000</v>
+      </c>
+      <c r="H22">
         <v>1064000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>908000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>1010000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>503000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>404000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>336000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>413000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1615000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1656000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>1736000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1738000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1900000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>2001000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>2188000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>2884000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>1415000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1339000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>1338000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>2211000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>2422000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>2297000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>2392000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>2207000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>13557000000</v>
+        <v>2211000000</v>
       </c>
       <c r="C23">
-        <v>13639000000</v>
+        <v>2250000000</v>
       </c>
       <c r="D23">
-        <v>14069000000</v>
+        <v>1891000000</v>
       </c>
       <c r="E23">
-        <v>13111000000</v>
+        <v>1879000000</v>
       </c>
       <c r="F23">
-        <v>17114000000</v>
+        <v>1750000000</v>
       </c>
       <c r="G23">
+        <v>1722000000</v>
+      </c>
+      <c r="H23">
         <v>1571000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1477000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1486000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2907000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2821000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>3398000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>3422000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>3621000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>4839000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>3731000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>3059000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>2905000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>2875000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>2474000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2015000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>1449000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>2128000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>2285000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>2221000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>1729000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>2048000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>2096000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>2078000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>1461000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1441000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>1433000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>1566000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>1755000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>1604000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>974000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>1106000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>1235000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>1314000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>1642000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>62896000000</v>
+      </c>
+      <c r="C24">
         <v>65575000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>65471000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>69377000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>71406000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>75341000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>77196000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>77984000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>82931000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>80507000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>81772000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>57933000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>44613000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>44561000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>39015000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>36362000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>35359000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>36451000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>36844000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>36719000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>36001000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>35453000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>39105000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>39737000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>38986000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>38311000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>39103000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>37924000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>37599000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>34404000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>34659000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>34489000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>35898000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>24812000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>25214000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>24440000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>26180000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>35886000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>37510000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>37221000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>152948000000</v>
+      </c>
+      <c r="C25">
         <v>155193000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>150270000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>151069000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>153398000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>161112000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>165420000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>167876000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>170211000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>172814000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>174254000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>152435000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>141925000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>136407000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>131204000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>119977000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>116949000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>115868000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>114569000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>112251000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>110649000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>89862000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>92014000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>89518000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>89120000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>86800000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>88962000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>87441000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>88011000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>92212000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>91795000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>89745000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>84131000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>78016000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>78553000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>76942000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>77666000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>85566000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>84459000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>82887000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>9947000000</v>
+      </c>
+      <c r="C26">
         <v>9705000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>9475000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>9295000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>9052000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>8796000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>8481000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>8155000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>7787000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>6687000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>6648000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>6595000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>6745000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>6688000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>6638000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>6573000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>6768000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>6714000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>6676000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>6624000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>6804000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>6754000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>4644000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>4604000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>4762000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>4808000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>4778000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>4784000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>4834000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>4771000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>4721000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>4657000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>4625000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>4572000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>4524000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>4441000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>4415000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>4295000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>4181000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>4079000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>5061000000</v>
@@ -3607,1102 +3796,1132 @@
       <c r="AN27">
         <v>5061000000</v>
       </c>
+      <c r="AO27">
+        <v>5061000000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>29473000000</v>
+      </c>
+      <c r="C28">
         <v>30107000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>33382000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>33189000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>34408000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>38551000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>38660000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>38073000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>38610000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>47029000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>47478000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>49854000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>50644000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>53986000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>52819000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>58090000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>55941000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>54666000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>52303000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>52095000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>49618000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>44052000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>42222000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>42165000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>40714000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>40641000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>38362000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>39975000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>38756000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>39069000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>37365000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>37516000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>36180000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>35880000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>34516000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>33929000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>32964000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>32647000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>31490000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>31143000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>50814000000</v>
+      </c>
+      <c r="C29">
         <v>51054000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>51319000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>51573000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>51861000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>52030000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>52223000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>52395000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>52641000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>54819000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>54829000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>54842000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>54914000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>54924000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>54932000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>54630000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>52348000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>51781000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>49342000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>46396000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>43454000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>41745000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>40730000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>38320000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>36097000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>35763000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>34821000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>32939000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>29568000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>28898000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>27463000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>25513000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>23298000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>22349000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>21381000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>20028000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>17671000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>16865000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>16412000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>15780000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
-        <v>-17699000000</v>
+        <v>-15848000000</v>
       </c>
       <c r="C30">
-        <v>-14888000000</v>
+        <v>-17635000000</v>
       </c>
       <c r="D30">
-        <v>-15398000000</v>
+        <v>-14791000000</v>
       </c>
       <c r="E30">
-        <v>-14999000000</v>
+        <v>-15268000000</v>
       </c>
       <c r="F30">
-        <v>-14440000000</v>
+        <v>-14846000000</v>
       </c>
       <c r="G30">
+        <v>-14266000000</v>
+      </c>
+      <c r="H30">
         <v>-16485000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-17841000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-18075000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>-11553000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>-11382000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-9360000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>-8300000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-3809000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>-4943000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>232000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>410000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-1209000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-1374000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1298000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1713000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1145000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-1978000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>155000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>877000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>2150000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>647000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>4106000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>6397000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>6786000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>6307000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>8030000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>8790000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>14637000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>14184000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>14633000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>14997000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>9067000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>7632000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>7560000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>-17699000000</v>
+        <v>-15848000000</v>
       </c>
       <c r="C31">
-        <v>-14888000000</v>
+        <v>-17635000000</v>
       </c>
       <c r="D31">
-        <v>-15398000000</v>
+        <v>-14791000000</v>
       </c>
       <c r="E31">
-        <v>-14999000000</v>
+        <v>-15268000000</v>
       </c>
       <c r="F31">
-        <v>-14440000000</v>
+        <v>-14846000000</v>
       </c>
       <c r="G31">
+        <v>-14266000000</v>
+      </c>
+      <c r="H31">
         <v>-16485000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-17841000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-18075000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-11553000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>-11382000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-9360000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-8300000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-3809000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-4943000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>232000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>410000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-1209000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-1374000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1298000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1713000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1145000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-1978000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>155000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>877000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>2150000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>647000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>4106000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>6397000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>6786000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>6307000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>8030000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>8790000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>14637000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>14184000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>14633000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>14997000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>9067000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>7632000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>7560000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>137100000000</v>
+      </c>
+      <c r="C32">
         <v>137558000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>135479000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>135801000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>138552000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>146846000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>148935000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>150035000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>152136000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>161261000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>162872000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>143075000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>133625000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>132598000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>126261000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>120209000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>117359000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>114659000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>113195000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>113549000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>112362000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>91007000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>90036000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>89673000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>89997000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>88950000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>89609000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>91547000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>94408000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>98998000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>98102000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>97775000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>92921000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>92653000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>92737000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>91575000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>92663000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>94633000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>92091000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>90447000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>597590000</v>
+      </c>
+      <c r="C33">
         <v>595622000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>593451000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>591375000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>588917000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>587472000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>585876000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>584455000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>582320000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>564516000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>564420000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>564313000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>562909000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>562789000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>562703000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>563411000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>567641000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>568999000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>575884000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>584222000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>591039000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>597351000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>593199000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>605792000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>617152000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>618960000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>625858000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>639815000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>666624000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>670961000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>681067000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>694004000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>706728000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>713841000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>721357000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>730750000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>747400000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>751910000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>754034000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>758321000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>-26216000000</v>
+      </c>
+      <c r="C34">
         <v>-28051000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-25277000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-25825000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-25476000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>-24967000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-27263000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-28688000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-28999000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>-22565000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>-22465000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>-20673000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-19698000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>-15459000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>-16755000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>-11233000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>-10859000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>-9461000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>-9418000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>-6785000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-6419000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-6722000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-9892000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>-7683000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>-6987000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>-5466000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>-7025000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>-3620000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>-1386000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>-1042000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>-1582000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>116000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>802000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>6552000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>6041000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>6591000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>6902000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>1058000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>-422000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>-564000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>39781000000</v>
+      </c>
+      <c r="C35">
         <v>42962000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>45752000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>45459000000</v>
       </c>
-      <c r="E35">
-        <v>43397000000</v>
-      </c>
       <c r="F35">
+        <v>41858000000</v>
+      </c>
+      <c r="G35">
         <v>42424000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>42217000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>41655000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>37993000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>33843000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>28949000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>23400000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>17272000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>13739000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>9610000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>7015000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>5283000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>1886000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>2348000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>2561000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1125000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>736000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>449000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>1594000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>-77000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>788000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>1750000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>1612000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>-2088000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>-841000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>-609000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>-593000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>-4022000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>-1197000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>-2447000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>-3289000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>-5623000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>-6315000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>-4747000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>-2682000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>57001000000</v>
+      </c>
+      <c r="C36">
         <v>57219000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>57200000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>57741000000</v>
       </c>
-      <c r="E36">
-        <v>59641000000</v>
-      </c>
       <c r="F36">
+        <v>58102000000</v>
+      </c>
+      <c r="G36">
         <v>62419000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>63559000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>63575000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>63583000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>60959000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>61379000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>38927000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>27302000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>24652000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>19216000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>14744000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>13847000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>11876000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>12118000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>12452000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>11117000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>10768000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>10775000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>10799000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>9952000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>10456000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>11015000000</v>
-      </c>
-      <c r="AB36">
-        <v>9964000000</v>
       </c>
       <c r="AC36">
         <v>9964000000</v>
       </c>
       <c r="AD36">
-        <v>9016000000</v>
+        <v>9964000000</v>
       </c>
       <c r="AE36">
         <v>9016000000</v>
       </c>
       <c r="AF36">
+        <v>9016000000</v>
+      </c>
+      <c r="AG36">
         <v>9038000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>9070000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>8880000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>8883000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>8935000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>9635000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>9596000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>9578000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>9171000000</v>
       </c>
     </row>
